--- a/气象/表格文件/同纬度最冷.xlsx
+++ b/气象/表格文件/同纬度最冷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\表格文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5250F70-9752-4CA8-A540-01ED0A577533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AABBDF6-CE84-4F5C-8821-0DA18C1F052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E62741EE-CD52-4090-9866-98FC2425579F}"/>
   </bookViews>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="164">
   <si>
     <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘉黎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青藏高原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,6 +367,327 @@
   </si>
   <si>
     <t>西藏-芒康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏-嘉黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏-那曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏-安多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海-清水河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海-沱沱河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海-五道梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海-海晏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🇲🇳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏盆地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1992-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶松臣格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东戈壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭爱山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂特冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘎鲁特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古-乌拉盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查干诺尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库苏古尔湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿木尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1975-1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🇷🇺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车尔尼雪夫斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈尔必齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石勒喀河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🇹🇯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕米尔高原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌斯季卡连加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡连加河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布伦库勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1961-1990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中卡拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉尔河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尔加布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀拉库勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆-巴音郭楞乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古-那仁宝力格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆-巴音布鲁克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🇰🇵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三池渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>有人无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻站推测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>恰拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰拉河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅尔坎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马亚河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托莫特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔丹河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌斯季尤多马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤戈廖诺克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂霍茨克渡口村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗斯-卡尔贾伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🇨🇦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥伊米亚康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因迪吉尔卡河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌斯季涅拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥莫隆</t>
+  </si>
+  <si>
+    <t>上扬斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍努</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫马河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥莫隆河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上扬斯克山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白山(雅库特)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPUTATSKIJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日林达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +699,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0\°"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +801,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +902,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,9 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28CD19D-A953-4359-9F1E-366029AE57BB}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -919,31 +1246,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -951,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
         <v>10.17</v>
@@ -966,16 +1293,16 @@
         <v>2976.4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4">
         <v>9120</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -983,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="6">
         <v>11.64</v>
@@ -998,16 +1325,16 @@
         <v>2940</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4">
         <v>9120</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1015,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6">
         <v>11.37</v>
@@ -1030,16 +1357,16 @@
         <v>3083</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4">
         <v>9120</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1047,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>17.559999999999999</v>
@@ -1062,16 +1389,16 @@
         <v>1770</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4">
         <v>9120</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1079,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
         <v>13.22</v>
@@ -1094,16 +1421,16 @@
         <v>2548</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
         <v>9120</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1111,10 +1438,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>16.600000000000001</v>
@@ -1126,16 +1453,16 @@
         <v>2094.3000000000002</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1143,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="6">
         <v>9.99</v>
@@ -1158,16 +1485,16 @@
         <v>2540</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>9120</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1175,10 +1502,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>11.99</v>
@@ -1190,16 +1517,16 @@
         <v>2676.4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
         <v>9120</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1207,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6">
         <v>14.29</v>
@@ -1226,10 +1553,10 @@
         <v>9120</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1237,10 +1564,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6">
         <v>14.05</v>
@@ -1252,16 +1579,16 @@
         <v>2749.9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4">
         <v>9120</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1269,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6">
         <v>14.26</v>
@@ -1287,10 +1614,10 @@
         <v>9120</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1298,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6">
         <v>10.31</v>
@@ -1313,16 +1640,16 @@
         <v>3388</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1330,10 +1657,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6">
         <v>16.36</v>
@@ -1348,10 +1675,10 @@
         <v>9120</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1359,10 +1686,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6">
         <v>5.8</v>
@@ -1374,16 +1701,16 @@
         <v>3444.2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1391,10 +1718,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>12.9</v>
@@ -1409,10 +1736,10 @@
         <v>9120</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1420,10 +1747,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6">
         <v>4.9000000000000004</v>
@@ -1435,16 +1762,16 @@
         <v>3825.8</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4">
         <v>9120</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1452,10 +1779,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6">
         <v>5.0999999999999996</v>
@@ -1467,16 +1794,16 @@
         <v>4061.5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="4">
         <v>9120</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1484,10 +1811,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
         <v>0.55000000000000004</v>
@@ -1499,16 +1826,16 @@
         <v>4057</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1516,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6">
         <v>11</v>
@@ -1534,10 +1861,10 @@
         <v>9120</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1545,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6">
         <v>5.08</v>
@@ -1560,16 +1887,16 @@
         <v>3935.9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4">
         <v>9120</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1577,10 +1904,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6">
         <v>11.43</v>
@@ -1595,10 +1922,10 @@
         <v>9120</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1606,10 +1933,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6">
         <v>11.18</v>
@@ -1624,10 +1951,10 @@
         <v>9120</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1635,10 +1962,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6">
         <v>4.5</v>
@@ -1650,16 +1977,16 @@
         <v>3479</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="4">
         <v>9120</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1667,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6">
         <v>8.9</v>
@@ -1682,13 +2009,13 @@
         <v>1507.5</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1696,10 +2023,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6">
         <v>6.9</v>
@@ -1714,10 +2041,10 @@
         <v>9120</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1725,10 +2052,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6">
         <v>4.9000000000000004</v>
@@ -1743,10 +2070,10 @@
         <v>9120</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1754,10 +2081,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6">
         <v>2.6</v>
@@ -1772,10 +2099,10 @@
         <v>9120</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1783,10 +2110,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="6">
         <v>-9</v>
@@ -1798,16 +2125,16 @@
         <v>4280.3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" s="4">
         <v>9120</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1815,10 +2142,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="6">
         <v>-6.4</v>
@@ -1830,16 +2157,16 @@
         <v>4300</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" s="4">
         <v>9120</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -1847,10 +2174,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="6">
         <v>-5</v>
@@ -1862,27 +2189,27 @@
         <v>3847</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="4">
         <v>9120</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
+      <c r="B32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D32" s="6">
         <v>-10.1</v>
@@ -1894,213 +2221,1374 @@
         <v>4488.8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" s="4">
         <v>9120</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-11.3</v>
+      </c>
+      <c r="E33" s="14">
+        <v>514300</v>
+      </c>
+      <c r="F33" s="16">
+        <v>4507</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-13.6</v>
+      </c>
+      <c r="E34" s="14">
+        <v>39683</v>
+      </c>
+      <c r="F34" s="16">
+        <v>4800</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-16.3</v>
+      </c>
+      <c r="E35" s="14">
+        <v>8585</v>
+      </c>
+      <c r="F35" s="16">
+        <v>4415.3999999999996</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-15.3</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1300</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4533.1000000000004</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-15.9</v>
+      </c>
+      <c r="E37" s="14">
+        <v>200</v>
+      </c>
+      <c r="F37" s="16">
+        <v>4612.2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-12.6</v>
+      </c>
+      <c r="E38" s="14">
+        <v>34321</v>
+      </c>
+      <c r="F38" s="16">
+        <v>3010</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-24.17</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="16">
+        <v>3744</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-17.850000000000001</v>
+      </c>
+      <c r="E40" s="14">
+        <v>7468</v>
+      </c>
+      <c r="F40" s="16">
+        <v>3576</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-17.29</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="16">
+        <v>3940</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-14.8</v>
+      </c>
+      <c r="E42" s="14">
+        <v>64681</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1080</v>
+      </c>
+      <c r="H42" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-17</v>
+      </c>
+      <c r="E43" s="14">
+        <v>31471</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1381</v>
+      </c>
+      <c r="H43" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-17</v>
+      </c>
+      <c r="E44" s="14">
+        <v>136100</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1434.5</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
+      <c r="B45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="17">
+        <v>-26.4</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1551</v>
+      </c>
+      <c r="F45" s="16">
+        <v>2465</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
+      <c r="B46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-26.4</v>
+      </c>
+      <c r="E46" s="14">
+        <v>8491</v>
+      </c>
+      <c r="F46" s="16">
+        <v>2459.1</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
+      <c r="B47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-20.6</v>
+      </c>
+      <c r="E47" s="14">
+        <v>3047</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="H47" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+      <c r="B48" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="6">
+        <v>-21.9</v>
+      </c>
+      <c r="E48" s="14">
+        <v>25300</v>
+      </c>
+      <c r="F48" s="16">
+        <v>865</v>
+      </c>
+      <c r="H48" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+      <c r="B49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6">
+        <v>-25.6</v>
+      </c>
+      <c r="E49" s="14">
+        <v>4012</v>
+      </c>
+      <c r="F49" s="16">
+        <v>2128</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
+      <c r="B50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6">
+        <v>-32.9</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2282</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2156</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
+      <c r="B51" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-31.5</v>
+      </c>
+      <c r="E51" s="14">
+        <v>8538</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1726</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
+      <c r="B52" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="6">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2688</v>
+      </c>
+      <c r="F52" s="16">
+        <v>997</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
+      <c r="B53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="6">
+        <v>-33.4</v>
+      </c>
+      <c r="E53" s="14">
+        <v>3169</v>
+      </c>
+      <c r="F53" s="16">
+        <v>800</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
+      <c r="B54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="6">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1317</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1546</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="6">
+        <v>-30.4</v>
+      </c>
+      <c r="E55" s="14">
+        <v>12533</v>
+      </c>
+      <c r="F55" s="16">
+        <v>538</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
+      <c r="B56" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="6">
+        <v>-32.1</v>
+      </c>
+      <c r="E56" s="14">
+        <v>9115</v>
+      </c>
+      <c r="F56" s="16">
+        <v>507.5</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1">
+      <c r="B57" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="17">
+        <v>-33.5</v>
+      </c>
+      <c r="E57" s="14">
+        <v>24</v>
+      </c>
+      <c r="F57" s="16">
+        <v>384</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
+      <c r="B58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="6">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="E58" s="14">
+        <v>143</v>
+      </c>
+      <c r="F58" s="16">
+        <v>143</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
+      <c r="B59" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="E59" s="14">
+        <v>53</v>
+      </c>
+      <c r="F59" s="16">
+        <v>748</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
+      <c r="B60" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-31.76</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1594</v>
+      </c>
+      <c r="F60" s="16">
+        <v>711</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
+      <c r="B61" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="6">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="E61" s="14">
+        <v>721</v>
+      </c>
+      <c r="F61" s="16">
+        <v>318</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
+      <c r="B62" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="6">
+        <v>-31.19</v>
+      </c>
+      <c r="E62" s="14">
+        <v>6440</v>
+      </c>
+      <c r="F62" s="16">
+        <v>283</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
+      <c r="B63" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-36.93</v>
+      </c>
+      <c r="E63" s="14">
+        <v>24</v>
+      </c>
+      <c r="F63" s="16">
+        <v>212</v>
+      </c>
+      <c r="H63" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>59</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="6">
+        <v>-36.909999999999997</v>
+      </c>
+      <c r="E64" s="14">
+        <v>267</v>
+      </c>
+      <c r="F64" s="16">
+        <v>383.7</v>
+      </c>
+      <c r="H64" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1">
+      <c r="B65" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="6">
+        <v>-39.36</v>
+      </c>
+      <c r="E65" s="14">
+        <v>6667</v>
+      </c>
+      <c r="F65" s="16">
+        <v>146</v>
+      </c>
+      <c r="H65" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
+      <c r="B66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="6">
+        <v>-39.630000000000003</v>
+      </c>
+      <c r="E66" s="14">
+        <v>140</v>
+      </c>
+      <c r="F66" s="16">
+        <v>140.6</v>
+      </c>
+      <c r="H66" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
+      <c r="B67" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="6">
+        <v>-41.74</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1521</v>
+      </c>
+      <c r="F67" s="16">
+        <v>114.5</v>
+      </c>
+      <c r="H67" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
+      <c r="B68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-45.67</v>
+      </c>
+      <c r="E68" s="14">
+        <v>560</v>
+      </c>
+      <c r="F68" s="16">
+        <v>741</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1">
+      <c r="B69" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="6">
+        <v>-44.26</v>
+      </c>
+      <c r="E69" s="14">
+        <v>4228</v>
+      </c>
+      <c r="F69" s="16">
+        <v>518.5</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1">
+      <c r="B70" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="6">
+        <v>-36.979999999999997</v>
+      </c>
+      <c r="E70" s="14">
+        <v>650</v>
+      </c>
+      <c r="F70" s="16">
+        <v>264</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1">
+      <c r="B71" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="6">
+        <v>-41.63</v>
+      </c>
+      <c r="E71" s="14">
+        <v>2052</v>
+      </c>
+      <c r="F71" s="16">
+        <v>195</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H71" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1">
+      <c r="B72" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="6">
+        <v>-44.72</v>
+      </c>
+      <c r="E72" s="14">
+        <v>828</v>
+      </c>
+      <c r="F72" s="16">
+        <v>138</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="1">
+      <c r="B73" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="6">
+        <v>-37.869999999999997</v>
+      </c>
+      <c r="E73" s="14">
+        <v>1927</v>
+      </c>
+      <c r="F73" s="16">
+        <v>41</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1">
+      <c r="B74" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="6">
+        <v>-36.72</v>
+      </c>
+      <c r="E74" s="14">
+        <v>2590</v>
+      </c>
+      <c r="F74" s="16">
+        <v>284.5</v>
+      </c>
+      <c r="H74" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>70</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="6">
+        <v>-36.44</v>
+      </c>
+      <c r="E75" s="14">
+        <v>709</v>
+      </c>
+      <c r="F75" s="16">
+        <v>61</v>
+      </c>
+      <c r="H75" s="4">
+        <v>9120</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>71</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>72</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>73</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
